--- a/data_quarter/zb/建筑业/建筑业企业房屋建筑竣工价值.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业房屋建筑竣工价值.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,116 @@
           <t>餐饮用房屋竣工价值_累计值</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>仓库竣工价值</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>住宅房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>住宿和餐饮用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>其他商业及服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>其他未列明的房屋建筑物竣工价值</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>办公用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>医疗用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>厂房及建筑物竣工价值</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>厂房竣工价值</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>商业及服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>商务会展用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>商厦房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>宾馆用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>居民服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业竣工房屋价值</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>批发和零售用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>教育用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>文化、体育和娱乐用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>科学研究用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>科研、教育和医疗用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>餐饮用房屋竣工价值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -591,11 +696,56 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>5267.76</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>178.15</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>440.09</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>994.15</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>127.31</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1714.53</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>159.19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10001.12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>277.25</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>639.79</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>150.26</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -643,32 +793,77 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>504.93</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>121.95</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>200.27</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1017.13</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3015.67</v>
+        <v>1498.41</v>
       </c>
       <c r="D4" t="n">
-        <v>101.74</v>
+        <v>53.27</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>226.1</v>
+        <v>110.51</v>
       </c>
       <c r="G4" t="n">
-        <v>610.91</v>
+        <v>332.19</v>
       </c>
       <c r="H4" t="n">
-        <v>67.59</v>
+        <v>37.47</v>
       </c>
       <c r="I4" t="n">
-        <v>1023.38</v>
+        <v>551.72</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -676,51 +871,96 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>75.93000000000001</v>
+        <v>35.6</v>
       </c>
       <c r="P4" t="n">
-        <v>5726.26</v>
+        <v>2912.49</v>
       </c>
       <c r="Q4" t="n">
-        <v>146.15</v>
+        <v>74.14</v>
       </c>
       <c r="R4" t="n">
-        <v>330.88</v>
+        <v>153.07</v>
       </c>
       <c r="S4" t="n">
-        <v>103.26</v>
+        <v>51.55</v>
       </c>
       <c r="T4" t="n">
-        <v>24.65</v>
+        <v>14.54</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>993.48</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>35.68000000000001</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>73.10000000000001</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>210.24</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>351.45</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1895.36</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.469999999999999</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1498.41</v>
+        <v>3015.67</v>
       </c>
       <c r="D5" t="n">
-        <v>53.27</v>
+        <v>101.74</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>110.51</v>
+        <v>226.1</v>
       </c>
       <c r="G5" t="n">
-        <v>332.19</v>
+        <v>610.91</v>
       </c>
       <c r="H5" t="n">
-        <v>37.47</v>
+        <v>67.59</v>
       </c>
       <c r="I5" t="n">
-        <v>551.72</v>
+        <v>1023.38</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -728,30 +968,75 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>35.6</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>2912.49</v>
+        <v>5726.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>74.14</v>
+        <v>146.15</v>
       </c>
       <c r="R5" t="n">
-        <v>153.07</v>
+        <v>330.88</v>
       </c>
       <c r="S5" t="n">
-        <v>51.55</v>
+        <v>103.26</v>
       </c>
       <c r="T5" t="n">
-        <v>14.54</v>
+        <v>24.65</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>1517.26</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>48.46999999999999</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>115.59</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>278.72</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>471.66</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>40.33000000000001</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2813.77</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>177.81</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>51.71000000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -799,11 +1084,56 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>3429.15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>115.64</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>288.42</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>659.37</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>79.47</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1070.46</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>95.75999999999999</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6371.01</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>162.27</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -851,32 +1181,77 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>710.63</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>56.66</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>138.64</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>264.43</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1340.72</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>56.29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>3461.71</v>
+        <v>1847.12</v>
       </c>
       <c r="D8" t="n">
-        <v>127.49</v>
+        <v>65.34</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>254.82</v>
+        <v>134.86</v>
       </c>
       <c r="G8" t="n">
-        <v>645.47</v>
+        <v>336.75</v>
       </c>
       <c r="H8" t="n">
-        <v>78.33</v>
+        <v>44.87</v>
       </c>
       <c r="I8" t="n">
-        <v>1192.22</v>
+        <v>659.27</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -884,51 +1259,96 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>88.76000000000001</v>
+        <v>50.69</v>
       </c>
       <c r="P8" t="n">
-        <v>6514.1</v>
+        <v>3467.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.34</v>
+        <v>95.2</v>
       </c>
       <c r="R8" t="n">
-        <v>355.36</v>
+        <v>163.27</v>
       </c>
       <c r="S8" t="n">
-        <v>102.45</v>
+        <v>52.07</v>
       </c>
       <c r="T8" t="n">
-        <v>35.14</v>
+        <v>18.31</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>1136.49</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>44.63</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>78.20000000000002</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>198.11</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>394.84</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2127.03</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>62.23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>106.98</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1847.12</v>
+        <v>3461.71</v>
       </c>
       <c r="D9" t="n">
-        <v>65.34</v>
+        <v>127.49</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>134.86</v>
+        <v>254.82</v>
       </c>
       <c r="G9" t="n">
-        <v>336.75</v>
+        <v>645.47</v>
       </c>
       <c r="H9" t="n">
-        <v>44.87</v>
+        <v>78.33</v>
       </c>
       <c r="I9" t="n">
-        <v>659.27</v>
+        <v>1192.22</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -936,30 +1356,75 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>50.69</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>3467.75</v>
+        <v>6514.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.2</v>
+        <v>172.34</v>
       </c>
       <c r="R9" t="n">
-        <v>163.27</v>
+        <v>355.36</v>
       </c>
       <c r="S9" t="n">
-        <v>52.07</v>
+        <v>102.45</v>
       </c>
       <c r="T9" t="n">
-        <v>18.31</v>
+        <v>35.14</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>1614.59</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>62.14999999999999</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>119.96</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>308.72</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>532.95</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>38.07000000000001</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3046.35</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>192.09</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1007,11 +1472,56 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>4087.84</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>126.41</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>261.78</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>736.1099999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>86.45999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1172.67</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>98.49999999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>7292.75</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>197.99</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>391.24</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>108.62</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1059,32 +1569,77 @@
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>904.87078</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>27.65528</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>42.81029</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>170.15705</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>19.93456</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>336.82638</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>23.82536</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1670.44125</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>33.98825</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>75.22348</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>28.7686</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.38122</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4577.99656</v>
+        <v>2572.05</v>
       </c>
       <c r="D12" t="n">
-        <v>177.53901</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>317.17162</v>
+        <v>160.82</v>
       </c>
       <c r="G12" t="n">
-        <v>870.22711</v>
+        <v>496.37</v>
       </c>
       <c r="H12" t="n">
-        <v>99.12905000000001</v>
+        <v>55.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1504.07443</v>
+        <v>862.4299999999999</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1092,51 +1647,96 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>115.26577</v>
+        <v>58.06</v>
       </c>
       <c r="P12" t="n">
-        <v>8429.187309999999</v>
+        <v>4679.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.63934</v>
+        <v>101.22</v>
       </c>
       <c r="R12" t="n">
-        <v>390.85093</v>
+        <v>196.58</v>
       </c>
       <c r="S12" t="n">
-        <v>139.04145</v>
+        <v>69.31</v>
       </c>
       <c r="T12" t="n">
-        <v>40.25204</v>
+        <v>18.9</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1667.17922</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>60.63472</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>118.00971</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>326.21295</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>35.46544</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>525.60362</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>34.23464</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3008.97875</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>67.23175000000001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>121.35652</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>40.5414</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12.51878</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>2572.05</v>
+        <v>4577.99656</v>
       </c>
       <c r="D13" t="n">
-        <v>88.29000000000001</v>
+        <v>177.53901</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>160.82</v>
+        <v>317.17162</v>
       </c>
       <c r="G13" t="n">
-        <v>496.37</v>
+        <v>870.22711</v>
       </c>
       <c r="H13" t="n">
-        <v>55.4</v>
+        <v>99.12905000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>862.4299999999999</v>
+        <v>1504.07443</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1144,30 +1744,75 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>58.06</v>
+        <v>115.26577</v>
       </c>
       <c r="P13" t="n">
-        <v>4679.42</v>
+        <v>8429.187309999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.22</v>
+        <v>197.63934</v>
       </c>
       <c r="R13" t="n">
-        <v>196.58</v>
+        <v>390.85093</v>
       </c>
       <c r="S13" t="n">
-        <v>69.31</v>
+        <v>139.04145</v>
       </c>
       <c r="T13" t="n">
-        <v>18.9</v>
+        <v>40.25204</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>2005.946559999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>89.24900999999998</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>156.35162</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>373.85711</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>43.72905000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>641.6444299999999</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>57.20577</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3749.767309999999</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>96.41934000000001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>194.27093</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>69.73145</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21.35204</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1215,11 +1860,56 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>4740.95917</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>144.42198</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>342.94434</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>743.8533199999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>103.5254</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1283.70647</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>123.13479</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>8166.994800000002</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>198.60119</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>305.34374</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>145.85923</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34.64517</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1267,32 +1957,77 @@
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>1252.59</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>57.48</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>201.97</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>404.54</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2169.38</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>5726.65</v>
+        <v>3316.29</v>
       </c>
       <c r="D16" t="n">
-        <v>218.31</v>
+        <v>113.96</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>308.36</v>
+        <v>167.56</v>
       </c>
       <c r="G16" t="n">
-        <v>944.26</v>
+        <v>553.88</v>
       </c>
       <c r="H16" t="n">
-        <v>122.35</v>
+        <v>69.44</v>
       </c>
       <c r="I16" t="n">
-        <v>1725.78</v>
+        <v>1011.15</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1300,51 +2035,96 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>117.23</v>
+        <v>74.72</v>
       </c>
       <c r="P16" t="n">
-        <v>10005.68</v>
+        <v>5767.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>234.02</v>
+        <v>135.59</v>
       </c>
       <c r="R16" t="n">
-        <v>389.64</v>
+        <v>213.32</v>
       </c>
       <c r="S16" t="n">
-        <v>177.93</v>
+        <v>91.95</v>
       </c>
       <c r="T16" t="n">
-        <v>41.16</v>
+        <v>19.23</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>2063.7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>110.08</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>351.91</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>606.6099999999999</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3597.7</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>132.08</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3316.29</v>
+        <v>5726.65</v>
       </c>
       <c r="D17" t="n">
-        <v>113.96</v>
+        <v>218.31</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>167.56</v>
+        <v>308.36</v>
       </c>
       <c r="G17" t="n">
-        <v>553.88</v>
+        <v>944.26</v>
       </c>
       <c r="H17" t="n">
-        <v>69.44</v>
+        <v>122.35</v>
       </c>
       <c r="I17" t="n">
-        <v>1011.15</v>
+        <v>1725.78</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1352,30 +2132,75 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>74.72</v>
+        <v>117.23</v>
       </c>
       <c r="P17" t="n">
-        <v>5767.08</v>
+        <v>10005.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.59</v>
+        <v>234.02</v>
       </c>
       <c r="R17" t="n">
-        <v>213.32</v>
+        <v>389.64</v>
       </c>
       <c r="S17" t="n">
-        <v>91.95</v>
+        <v>177.93</v>
       </c>
       <c r="T17" t="n">
-        <v>19.23</v>
+        <v>41.16</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>2410.36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>104.35</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>390.38</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>714.63</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>42.51000000000001</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>4238.6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>98.43000000000001</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>176.32</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>85.98</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1423,11 +2248,56 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>5662</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>163.22</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>379.58</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>818.1800000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>120.69</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1598.48</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>127.04</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9637.75</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>199.23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>157.47</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>44.49000000000001</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1475,32 +2345,77 @@
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>1419.47</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>217.29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>448.1</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2451.32</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>95.12</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>6905</v>
+        <v>3922.9</v>
       </c>
       <c r="D20" t="n">
-        <v>203.3</v>
+        <v>105.2</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>440.5</v>
+        <v>212.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1122.8</v>
+        <v>622</v>
       </c>
       <c r="H20" t="n">
-        <v>141.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>1960.3</v>
+        <v>1153.8</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1508,51 +2423,96 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>177.4</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>11935.5</v>
+        <v>6716.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.5</v>
+        <v>149.2</v>
       </c>
       <c r="R20" t="n">
-        <v>484.8</v>
+        <v>243.2</v>
       </c>
       <c r="S20" t="n">
-        <v>172.8</v>
+        <v>100</v>
       </c>
       <c r="T20" t="n">
-        <v>56.4</v>
+        <v>28.2</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>2503.43</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>145.99</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>404.71</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>59.84</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>705.6999999999999</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>58.60999999999999</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4265.379999999999</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>148.08</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>68.23</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>3922.9</v>
+        <v>6905</v>
       </c>
       <c r="D21" t="n">
-        <v>105.2</v>
+        <v>203.3</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>212.7</v>
+        <v>440.5</v>
       </c>
       <c r="G21" t="n">
-        <v>622</v>
+        <v>1122.8</v>
       </c>
       <c r="H21" t="n">
-        <v>85.40000000000001</v>
+        <v>141.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1153.8</v>
+        <v>1960.3</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1560,30 +2520,75 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>94.09999999999999</v>
+        <v>177.4</v>
       </c>
       <c r="P21" t="n">
-        <v>6716.7</v>
+        <v>11935.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.2</v>
+        <v>270.5</v>
       </c>
       <c r="R21" t="n">
-        <v>243.2</v>
+        <v>484.8</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>172.8</v>
       </c>
       <c r="T21" t="n">
-        <v>28.2</v>
+        <v>56.4</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>2982.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>98.10000000000001</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>500.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>56.40000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>83.30000000000001</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5218.8</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>72.80000000000001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1631,11 +2636,56 @@
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>7431.299999999999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>444</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1016.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1782.4</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12149.1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>274</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>472.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>43.50000000000001</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1683,32 +2733,77 @@
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>1864.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>276.9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>3134.8</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>8473.799999999999</v>
+        <v>4673.7</v>
       </c>
       <c r="D24" t="n">
-        <v>233.88</v>
+        <v>130.8</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>528.22</v>
+        <v>309.1</v>
       </c>
       <c r="G24" t="n">
-        <v>1249.79</v>
+        <v>695.6</v>
       </c>
       <c r="H24" t="n">
-        <v>220.01</v>
+        <v>120.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2226.98</v>
+        <v>1227.9</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1716,51 +2811,96 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>197.37</v>
+        <v>123.5</v>
       </c>
       <c r="P24" t="n">
-        <v>14367.03</v>
+        <v>7927.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>304.93</v>
+        <v>185.5</v>
       </c>
       <c r="R24" t="n">
-        <v>554.1799999999999</v>
+        <v>279.6</v>
       </c>
       <c r="S24" t="n">
-        <v>293.88</v>
+        <v>138.6</v>
       </c>
       <c r="T24" t="n">
-        <v>83.98999999999999</v>
+        <v>42.6</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>2808.9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>418.7</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>717.6000000000001</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>4792.8</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>122</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>4673.7</v>
+        <v>8473.799999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>130.8</v>
+        <v>233.88</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>309.1</v>
+        <v>528.22</v>
       </c>
       <c r="G25" t="n">
-        <v>695.6</v>
+        <v>1249.79</v>
       </c>
       <c r="H25" t="n">
-        <v>120.7</v>
+        <v>220.01</v>
       </c>
       <c r="I25" t="n">
-        <v>1227.9</v>
+        <v>2226.98</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1768,30 +2908,75 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>123.5</v>
+        <v>197.37</v>
       </c>
       <c r="P25" t="n">
-        <v>7927.6</v>
+        <v>14367.03</v>
       </c>
       <c r="Q25" t="n">
-        <v>185.5</v>
+        <v>304.93</v>
       </c>
       <c r="R25" t="n">
-        <v>279.6</v>
+        <v>554.1799999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>138.6</v>
+        <v>293.88</v>
       </c>
       <c r="T25" t="n">
-        <v>42.6</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>3800.099999999999</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>103.08</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>219.12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>554.1899999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>99.30999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>999.0799999999999</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>6439.43</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>119.43</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>274.5799999999999</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>155.28</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>41.38999999999999</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1839,11 +3024,56 @@
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>9194.610000000001</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>264.16</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>629.3099999999999</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1173.54</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>174.55</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2281.6</v>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15013.63</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>330.48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>508.61</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>205.17</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1891,32 +3121,77 @@
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>2254.48</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>330.83</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>49.02</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>632.85</v>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>3841.95</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>155.19</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>10700.5</v>
+        <v>5872.5</v>
       </c>
       <c r="D28" t="n">
-        <v>306</v>
+        <v>175.97</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>719.11</v>
+        <v>355.04</v>
       </c>
       <c r="G28" t="n">
-        <v>1423.84</v>
+        <v>825.14</v>
       </c>
       <c r="H28" t="n">
-        <v>233.68</v>
+        <v>125.14</v>
       </c>
       <c r="I28" t="n">
-        <v>2819.19</v>
+        <v>1594.7</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1924,51 +3199,96 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>188.98</v>
+        <v>98.63</v>
       </c>
       <c r="P28" t="n">
-        <v>17804.04</v>
+        <v>9818.120000000001</v>
       </c>
       <c r="Q28" t="n">
-        <v>351.87</v>
+        <v>205.38</v>
       </c>
       <c r="R28" t="n">
-        <v>678.0700000000001</v>
+        <v>368.9</v>
       </c>
       <c r="S28" t="n">
-        <v>320.42</v>
+        <v>162.79</v>
       </c>
       <c r="T28" t="n">
-        <v>62.38</v>
+        <v>33.94</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>3618.02</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>216.48</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>494.31</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>76.12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>961.85</v>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>60.48999999999999</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>5976.170000000001</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>112.48</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>213.71</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>102.85</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>5872.5</v>
+        <v>10700.5</v>
       </c>
       <c r="D29" t="n">
-        <v>175.97</v>
+        <v>306</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>355.04</v>
+        <v>719.11</v>
       </c>
       <c r="G29" t="n">
-        <v>825.14</v>
+        <v>1423.84</v>
       </c>
       <c r="H29" t="n">
-        <v>125.14</v>
+        <v>233.68</v>
       </c>
       <c r="I29" t="n">
-        <v>1594.7</v>
+        <v>2819.19</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1976,30 +3296,75 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>98.63</v>
+        <v>188.98</v>
       </c>
       <c r="P29" t="n">
-        <v>9818.120000000001</v>
+        <v>17804.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.38</v>
+        <v>351.87</v>
       </c>
       <c r="R29" t="n">
-        <v>368.9</v>
+        <v>678.0700000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>162.79</v>
+        <v>320.42</v>
       </c>
       <c r="T29" t="n">
-        <v>33.94</v>
+        <v>62.38</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>4828</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>130.03</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>364.07</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>598.6999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>108.54</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1224.49</v>
+      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>7985.92</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>146.49</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>309.1700000000001</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>157.63</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2047,11 +3412,56 @@
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>10987.13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>306.9400000000001</v>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>744.6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1291.42</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>220.85</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2590.74</v>
+      </c>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>223.95</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17635.96</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>379.67</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>583.7899999999998</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>236.43</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>70.45000000000002</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2111,139 +3521,310 @@
       <c r="V31" t="n">
         <v>14.46</v>
       </c>
+      <c r="W31" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2976.74</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>150.23</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>385.06</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>689.88</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>492.67</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>332.22</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>158.09</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>57.58</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>4899.69</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>173.63</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>279.73</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>14.46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>134.61</v>
+        <v>80.84</v>
       </c>
       <c r="C32" t="n">
-        <v>14521.93</v>
+        <v>8100.84</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>428.57</v>
+        <v>239.68</v>
       </c>
       <c r="F32" t="n">
-        <v>585.21</v>
+        <v>357.78</v>
       </c>
       <c r="G32" t="n">
-        <v>1651.92</v>
+        <v>959.14</v>
       </c>
       <c r="H32" t="n">
-        <v>318.78</v>
+        <v>180.09</v>
       </c>
       <c r="I32" t="n">
-        <v>3031.82</v>
+        <v>1784.53</v>
       </c>
       <c r="J32" t="n">
-        <v>2193.29</v>
+        <v>1296.64</v>
       </c>
       <c r="K32" t="n">
-        <v>1521.35</v>
+        <v>902.71</v>
       </c>
       <c r="L32" t="n">
-        <v>105.23</v>
+        <v>62.96</v>
       </c>
       <c r="M32" t="n">
-        <v>664.59</v>
+        <v>409.28</v>
       </c>
       <c r="N32" t="n">
-        <v>257.25</v>
+        <v>152.42</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>22941.49</v>
+        <v>13026.83</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>734.03</v>
+        <v>402.76</v>
       </c>
       <c r="S32" t="n">
-        <v>303.72</v>
+        <v>188.3</v>
       </c>
       <c r="T32" t="n">
-        <v>138.12</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>1190.93</v>
+        <v>652.7</v>
       </c>
       <c r="V32" t="n">
-        <v>65.70999999999999</v>
+        <v>38.39</v>
+      </c>
+      <c r="W32" t="n">
+        <v>46.46</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5124.1</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>147.21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>207.55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>574.0799999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1094.65</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>803.97</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>570.49</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>251.19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>94.83999999999999</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>8127.14</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>229.13</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>136.85</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>37.52999999999999</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>372.97</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>23.93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>80.84</v>
+        <v>134.61</v>
       </c>
       <c r="C33" t="n">
-        <v>8100.84</v>
+        <v>14521.93</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>239.68</v>
+        <v>428.57</v>
       </c>
       <c r="F33" t="n">
-        <v>357.78</v>
+        <v>585.21</v>
       </c>
       <c r="G33" t="n">
-        <v>959.14</v>
+        <v>1651.92</v>
       </c>
       <c r="H33" t="n">
-        <v>180.09</v>
+        <v>318.78</v>
       </c>
       <c r="I33" t="n">
-        <v>1784.53</v>
+        <v>3031.82</v>
       </c>
       <c r="J33" t="n">
-        <v>1296.64</v>
+        <v>2193.29</v>
       </c>
       <c r="K33" t="n">
-        <v>902.71</v>
+        <v>1521.35</v>
       </c>
       <c r="L33" t="n">
-        <v>62.96</v>
+        <v>105.23</v>
       </c>
       <c r="M33" t="n">
-        <v>409.28</v>
+        <v>664.59</v>
       </c>
       <c r="N33" t="n">
-        <v>152.42</v>
+        <v>257.25</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>13026.83</v>
+        <v>22941.49</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>402.76</v>
+        <v>734.03</v>
       </c>
       <c r="S33" t="n">
-        <v>188.3</v>
+        <v>303.72</v>
       </c>
       <c r="T33" t="n">
-        <v>69.84999999999999</v>
+        <v>138.12</v>
       </c>
       <c r="U33" t="n">
-        <v>652.7</v>
+        <v>1190.93</v>
       </c>
       <c r="V33" t="n">
-        <v>38.39</v>
+        <v>65.70999999999999</v>
+      </c>
+      <c r="W33" t="n">
+        <v>53.77000000000001</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6421.09</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>188.89</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>227.4300000000001</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>692.7800000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>138.69</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1247.29</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>896.6499999999999</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>618.6399999999999</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>255.3100000000001</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>104.83</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="n">
+        <v>9914.660000000002</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
+        <v>331.27</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>115.42</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>68.27000000000001</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>538.23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>27.31999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2303,11 +3884,68 @@
       <c r="V34" t="n">
         <v>157.13</v>
       </c>
+      <c r="W34" t="n">
+        <v>167.26</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15081.72</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>613.51</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>751.8199999999999</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1540.23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>315.15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2939.98</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1913.05</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1855.08</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>647.4799999999999</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>346.58</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
+        <v>23926.45</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>769.8700000000001</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>313.13</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>192.21</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1277.22</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>91.42</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2367,139 +4005,310 @@
       <c r="V35" t="n">
         <v>17.36</v>
       </c>
+      <c r="W35" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3937.24</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>138</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>423.73</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>842.98</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>575.92</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>171.03</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>6148.35</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>184.26</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>74.92</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>281.38</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>17.36</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.04</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>18904.66</v>
+        <v>10630.42</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>666.2</v>
+        <v>357.45</v>
       </c>
       <c r="F36" t="n">
-        <v>656.42</v>
+        <v>425.07</v>
       </c>
       <c r="G36" t="n">
-        <v>1890.63</v>
+        <v>1112.28</v>
       </c>
       <c r="H36" t="n">
-        <v>324.09</v>
+        <v>181.82</v>
       </c>
       <c r="I36" t="n">
-        <v>3474.26</v>
+        <v>2104.26</v>
       </c>
       <c r="J36" t="n">
-        <v>2430.46</v>
+        <v>1466.1</v>
       </c>
       <c r="K36" t="n">
-        <v>1981.11</v>
+        <v>1140.49</v>
       </c>
       <c r="L36" t="n">
-        <v>121.11</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>810.71</v>
+        <v>510.9</v>
       </c>
       <c r="N36" t="n">
-        <v>288.05</v>
+        <v>148.86</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>28742.34</v>
+        <v>16415.88</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>879.89</v>
+        <v>463.57</v>
       </c>
       <c r="S36" t="n">
-        <v>315.46</v>
+        <v>170.83</v>
       </c>
       <c r="T36" t="n">
-        <v>149.79</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>1353.77</v>
+        <v>739.13</v>
       </c>
       <c r="V36" t="n">
-        <v>95.05</v>
+        <v>50.76</v>
+      </c>
+      <c r="W36" t="n">
+        <v>56.49000000000001</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6693.18</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>219.45</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>285.27</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>688.55</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1261.28</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>890.1799999999999</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>729.09</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>35.25000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>339.87</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>101.12</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>10267.53</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>279.31</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>95.91000000000001</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>62.63999999999999</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>457.75</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.40000000000001</v>
+        <v>166.04</v>
       </c>
       <c r="C37" t="n">
-        <v>10630.42</v>
+        <v>18904.66</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>357.45</v>
+        <v>666.2</v>
       </c>
       <c r="F37" t="n">
-        <v>425.07</v>
+        <v>656.42</v>
       </c>
       <c r="G37" t="n">
-        <v>1112.28</v>
+        <v>1890.63</v>
       </c>
       <c r="H37" t="n">
-        <v>181.82</v>
+        <v>324.09</v>
       </c>
       <c r="I37" t="n">
-        <v>2104.26</v>
+        <v>3474.26</v>
       </c>
       <c r="J37" t="n">
-        <v>1466.1</v>
+        <v>2430.46</v>
       </c>
       <c r="K37" t="n">
-        <v>1140.49</v>
+        <v>1981.11</v>
       </c>
       <c r="L37" t="n">
-        <v>72.51000000000001</v>
+        <v>121.11</v>
       </c>
       <c r="M37" t="n">
-        <v>510.9</v>
+        <v>810.71</v>
       </c>
       <c r="N37" t="n">
-        <v>148.86</v>
+        <v>288.05</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>16415.88</v>
+        <v>28742.34</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>463.57</v>
+        <v>879.89</v>
       </c>
       <c r="S37" t="n">
-        <v>170.83</v>
+        <v>315.46</v>
       </c>
       <c r="T37" t="n">
-        <v>93.73999999999999</v>
+        <v>149.79</v>
       </c>
       <c r="U37" t="n">
-        <v>739.13</v>
+        <v>1353.77</v>
       </c>
       <c r="V37" t="n">
-        <v>50.76</v>
+        <v>95.05</v>
+      </c>
+      <c r="W37" t="n">
+        <v>72.63999999999999</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8274.24</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>308.7500000000001</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>231.35</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>778.3500000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>142.27</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1370</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>964.3600000000001</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>840.6199999999999</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>48.59999999999999</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>299.8100000000001</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>139.19</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>12326.46</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
+        <v>416.32</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>144.63</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>614.64</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>44.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2559,11 +4368,68 @@
       <c r="V38" t="n">
         <v>175.98</v>
       </c>
+      <c r="W38" t="n">
+        <v>154.59</v>
+      </c>
+      <c r="X38" t="n">
+        <v>18028.86</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>626.46</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>646.2400000000001</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1845.08</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>321.19</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3185.55</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2088.71</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>2070.56</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>142.21</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>940.47</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>280.47</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>27537.59</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>771.61</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>346.6100000000001</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>167.29</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1260.09</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>80.92999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2623,139 +4489,310 @@
       <c r="V39" t="n">
         <v>29.16</v>
       </c>
+      <c r="W39" t="n">
+        <v>45.11</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5218.27</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>152.52</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>146.17</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>483.88</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>958.0700000000001</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>651.12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>498.11</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>40.73</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>204.25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>71.45</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>7801.38</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>100.92</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>29.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.18</v>
+        <v>104.59</v>
       </c>
       <c r="C40" t="n">
-        <v>22138.33</v>
+        <v>12979.48</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>714.7</v>
+        <v>364.61</v>
       </c>
       <c r="F40" t="n">
-        <v>684.2</v>
+        <v>391.76</v>
       </c>
       <c r="G40" t="n">
-        <v>2118.9</v>
+        <v>1178.39</v>
       </c>
       <c r="H40" t="n">
-        <v>374.53</v>
+        <v>212.76</v>
       </c>
       <c r="I40" t="n">
-        <v>3791.66</v>
+        <v>2285.22</v>
       </c>
       <c r="J40" t="n">
-        <v>2566.1</v>
+        <v>1566.01</v>
       </c>
       <c r="K40" t="n">
-        <v>2403.21</v>
+        <v>1326.33</v>
       </c>
       <c r="L40" t="n">
-        <v>159.69</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>1080.1</v>
+        <v>594.9400000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>340.19</v>
+        <v>201.06</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>33280.27</v>
+        <v>19387.34</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>994.47</v>
+        <v>531.02</v>
       </c>
       <c r="S40" t="n">
-        <v>416.87</v>
+        <v>256.49</v>
       </c>
       <c r="T40" t="n">
-        <v>177.9</v>
+        <v>121.32</v>
       </c>
       <c r="U40" t="n">
-        <v>1546.9</v>
+        <v>865.09</v>
       </c>
       <c r="V40" t="n">
-        <v>108.53</v>
+        <v>65.91</v>
+      </c>
+      <c r="W40" t="n">
+        <v>59.48</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7761.209999999999</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>212.09</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>245.59</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>694.5100000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>129.71</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1327.15</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>914.89</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>828.2199999999999</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>390.6900000000001</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>129.61</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>11585.96</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>317.59</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>155.57</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>66.94999999999999</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>514.25</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>36.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.59</v>
+        <v>180.18</v>
       </c>
       <c r="C41" t="n">
-        <v>12979.48</v>
+        <v>22138.33</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>364.61</v>
+        <v>714.7</v>
       </c>
       <c r="F41" t="n">
-        <v>391.76</v>
+        <v>684.2</v>
       </c>
       <c r="G41" t="n">
-        <v>1178.39</v>
+        <v>2118.9</v>
       </c>
       <c r="H41" t="n">
-        <v>212.76</v>
+        <v>374.53</v>
       </c>
       <c r="I41" t="n">
-        <v>2285.22</v>
+        <v>3791.66</v>
       </c>
       <c r="J41" t="n">
-        <v>1566.01</v>
+        <v>2566.1</v>
       </c>
       <c r="K41" t="n">
-        <v>1326.33</v>
+        <v>2403.21</v>
       </c>
       <c r="L41" t="n">
-        <v>99.81999999999999</v>
+        <v>159.69</v>
       </c>
       <c r="M41" t="n">
-        <v>594.9400000000001</v>
+        <v>1080.1</v>
       </c>
       <c r="N41" t="n">
-        <v>201.06</v>
+        <v>340.19</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>19387.34</v>
+        <v>33280.27</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>531.02</v>
+        <v>994.47</v>
       </c>
       <c r="S41" t="n">
-        <v>256.49</v>
+        <v>416.87</v>
       </c>
       <c r="T41" t="n">
-        <v>121.32</v>
+        <v>177.9</v>
       </c>
       <c r="U41" t="n">
-        <v>865.09</v>
+        <v>1546.9</v>
       </c>
       <c r="V41" t="n">
-        <v>65.91</v>
+        <v>108.53</v>
+      </c>
+      <c r="W41" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9158.850000000002</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>350.09</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>292.4400000000001</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>940.51</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>161.77</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1506.44</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000.09</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1076.88</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>485.1599999999999</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>139.13</v>
+      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>13892.93</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>463.45</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>160.38</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>56.58000000000001</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>681.8100000000001</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>42.62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2815,11 +4852,68 @@
       <c r="V42" t="n">
         <v>214.1</v>
       </c>
+      <c r="W42" t="n">
+        <v>191.42</v>
+      </c>
+      <c r="X42" t="n">
+        <v>20396.07</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>778.8</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1783.9</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>350.47</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3293.04</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2200.4</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>2256.29</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>165.41</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>955.6000000000001</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>283.31</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>30305.23</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
+        <v>784.03</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>325.73</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1280.1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>105.57</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2879,139 +4973,310 @@
       <c r="V43" t="n">
         <v>34.92</v>
       </c>
+      <c r="W43" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5569.93</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>225.04</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>541.21</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>94.48</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1036.99</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>665.46</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>655.28</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>256.48</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>90.98</v>
+      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>8525.41</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>107.89</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>378.07</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>34.92</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.02</v>
+        <v>121.69</v>
       </c>
       <c r="C44" t="n">
-        <v>23654.07</v>
+        <v>13958.78</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>802.72</v>
+        <v>459.34</v>
       </c>
       <c r="F44" t="n">
-        <v>769.02</v>
+        <v>460.91</v>
       </c>
       <c r="G44" t="n">
-        <v>2216.09</v>
+        <v>1313.16</v>
       </c>
       <c r="H44" t="n">
-        <v>350.89</v>
+        <v>215.84</v>
       </c>
       <c r="I44" t="n">
-        <v>3879.37</v>
+        <v>2387.17</v>
       </c>
       <c r="J44" t="n">
-        <v>2620.03</v>
+        <v>1580.16</v>
       </c>
       <c r="K44" t="n">
-        <v>2662.3</v>
+        <v>1597.55</v>
       </c>
       <c r="L44" t="n">
-        <v>248.65</v>
+        <v>184.79</v>
       </c>
       <c r="M44" t="n">
-        <v>1140</v>
+        <v>652.99</v>
       </c>
       <c r="N44" t="n">
-        <v>357.52</v>
+        <v>232.55</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>35322.88</v>
+        <v>20965.07</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1034.97</v>
+        <v>554.27</v>
       </c>
       <c r="S44" t="n">
-        <v>420.3</v>
+        <v>255.14</v>
       </c>
       <c r="T44" t="n">
-        <v>151.85</v>
+        <v>100.56</v>
       </c>
       <c r="U44" t="n">
-        <v>1537.71</v>
+        <v>870.67</v>
       </c>
       <c r="V44" t="n">
-        <v>113.41</v>
+        <v>67.87</v>
+      </c>
+      <c r="W44" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="X44" t="n">
+        <v>8388.85</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>234.3</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>269.41</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>771.95</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1350.18</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>914.7</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>942.27</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>136.93</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>396.51</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>141.57</v>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>12439.66</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>316.17</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>492.6</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>32.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>121.69</v>
+        <v>184.02</v>
       </c>
       <c r="C45" t="n">
-        <v>13958.78</v>
+        <v>23654.07</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>459.34</v>
+        <v>802.72</v>
       </c>
       <c r="F45" t="n">
-        <v>460.91</v>
+        <v>769.02</v>
       </c>
       <c r="G45" t="n">
-        <v>1313.16</v>
+        <v>2216.09</v>
       </c>
       <c r="H45" t="n">
-        <v>215.84</v>
+        <v>350.89</v>
       </c>
       <c r="I45" t="n">
-        <v>2387.17</v>
+        <v>3879.37</v>
       </c>
       <c r="J45" t="n">
-        <v>1580.16</v>
+        <v>2620.03</v>
       </c>
       <c r="K45" t="n">
-        <v>1597.55</v>
+        <v>2662.3</v>
       </c>
       <c r="L45" t="n">
-        <v>184.79</v>
+        <v>248.65</v>
       </c>
       <c r="M45" t="n">
-        <v>652.99</v>
+        <v>1140</v>
       </c>
       <c r="N45" t="n">
-        <v>232.55</v>
+        <v>357.52</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>20965.07</v>
+        <v>35322.88</v>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>554.27</v>
+        <v>1034.97</v>
       </c>
       <c r="S45" t="n">
-        <v>255.14</v>
+        <v>420.3</v>
       </c>
       <c r="T45" t="n">
-        <v>100.56</v>
+        <v>151.85</v>
       </c>
       <c r="U45" t="n">
-        <v>870.67</v>
+        <v>1537.71</v>
       </c>
       <c r="V45" t="n">
-        <v>67.87</v>
+        <v>113.41</v>
+      </c>
+      <c r="W45" t="n">
+        <v>62.33000000000001</v>
+      </c>
+      <c r="X45" t="n">
+        <v>9695.289999999999</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>343.3800000000001</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>308.11</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>902.9300000000001</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>135.05</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1492.2</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1039.87</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1064.75</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>63.86000000000001</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>487.01</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>124.97</v>
+      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>14357.81</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>165.16</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>51.28999999999999</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>667.0400000000001</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>45.53999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3071,11 +5336,68 @@
       <c r="V46" t="n">
         <v>192.8</v>
       </c>
+      <c r="W46" t="n">
+        <v>181.08</v>
+      </c>
+      <c r="X46" t="n">
+        <v>20909.03</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>766.0799999999999</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>889.78</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1974.71</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>388.41</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3226.13</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2128.47</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2390.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>158.65</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1117.6</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>268.78</v>
+      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>31554.12</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>917.53</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>527</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>150.05</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1455.99</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>79.39000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3135,139 +5457,310 @@
       <c r="V47" t="n">
         <v>31.5</v>
       </c>
+      <c r="W47" t="n">
+        <v>46.26</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6244.75</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>179.87</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>574.02</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1025.88</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>623.35</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>689.12</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>45.33</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>318.76</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>9299.02</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>283.46</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>104.11</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>435</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>208.92</v>
+        <v>106.12</v>
       </c>
       <c r="C48" t="n">
-        <v>25187.9</v>
+        <v>15426.23</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>943.5399999999991</v>
+        <v>554.63</v>
       </c>
       <c r="F48" t="n">
-        <v>867.87</v>
+        <v>526.14</v>
       </c>
       <c r="G48" t="n">
-        <v>2359.67</v>
+        <v>1459.2</v>
       </c>
       <c r="H48" t="n">
-        <v>427.389999999999</v>
+        <v>247.28</v>
       </c>
       <c r="I48" t="n">
-        <v>3831.13999999999</v>
+        <v>2382.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2535.88999999999</v>
+        <v>1539.29</v>
       </c>
       <c r="K48" t="n">
-        <v>2983.92999999999</v>
+        <v>1872.02</v>
       </c>
       <c r="L48" t="n">
-        <v>207.58</v>
+        <v>111.59</v>
       </c>
       <c r="M48" t="n">
-        <v>1369.32999999999</v>
+        <v>880.48</v>
       </c>
       <c r="N48" t="n">
-        <v>356.53</v>
+        <v>250.93</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>37793.3199999999</v>
+        <v>23158.41</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>1229.17</v>
+        <v>698.64</v>
       </c>
       <c r="S48" t="n">
-        <v>467.069999999999</v>
+        <v>301.32</v>
       </c>
       <c r="T48" t="n">
-        <v>230.25</v>
+        <v>138.96</v>
       </c>
       <c r="U48" t="n">
-        <v>1886.80999999999</v>
+        <v>1084.88</v>
       </c>
       <c r="V48" t="n">
-        <v>106.96</v>
+        <v>74.40000000000001</v>
+      </c>
+      <c r="W48" t="n">
+        <v>59.86000000000001</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9181.48</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>351</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>346.27</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>885.1800000000001</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>160.43</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1356.62</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>915.9399999999999</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1182.9</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>561.72</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>161.03</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>13859.39</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>415.18</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>197.21</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>74.27000000000001</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>649.8800000000001</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>42.90000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>106.12</v>
+        <v>208.92</v>
       </c>
       <c r="C49" t="n">
-        <v>15426.23</v>
+        <v>25187.9</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>554.63</v>
+        <v>943.5399999999991</v>
       </c>
       <c r="F49" t="n">
-        <v>526.14</v>
+        <v>867.87</v>
       </c>
       <c r="G49" t="n">
-        <v>1459.2</v>
+        <v>2359.67</v>
       </c>
       <c r="H49" t="n">
-        <v>247.28</v>
+        <v>427.389999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>2382.5</v>
+        <v>3831.13999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>1539.29</v>
+        <v>2535.88999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>1872.02</v>
+        <v>2983.92999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>111.59</v>
+        <v>207.58</v>
       </c>
       <c r="M49" t="n">
-        <v>880.48</v>
+        <v>1369.32999999999</v>
       </c>
       <c r="N49" t="n">
-        <v>250.93</v>
+        <v>356.53</v>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>23158.41</v>
+        <v>37793.3199999999</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>698.64</v>
+        <v>1229.17</v>
       </c>
       <c r="S49" t="n">
-        <v>301.32</v>
+        <v>467.069999999999</v>
       </c>
       <c r="T49" t="n">
-        <v>138.96</v>
+        <v>230.25</v>
       </c>
       <c r="U49" t="n">
-        <v>1084.88</v>
+        <v>1886.80999999999</v>
       </c>
       <c r="V49" t="n">
-        <v>74.40000000000001</v>
+        <v>106.96</v>
+      </c>
+      <c r="W49" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="X49" t="n">
+        <v>9761.670000000002</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>388.9099999999991</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>341.73</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>900.47</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>180.109999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1448.63999999999</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>996.5999999999899</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1111.90999999999</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>95.99000000000001</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>488.8499999999899</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>14634.9099999999</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>530.5300000000001</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>165.749999999999</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>91.28999999999999</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>801.9299999999898</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>32.55999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3327,11 +5820,68 @@
       <c r="V50" t="n">
         <v>185.58</v>
       </c>
+      <c r="W50" t="n">
+        <v>209.71</v>
+      </c>
+      <c r="X50" t="n">
+        <v>20920.72</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>756.0500000000009</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>856.7700000000001</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>339.4000000000009</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3221.670000000011</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2139.71000000001</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2599.54000000001</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>270.17</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1209.98000000001</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>284.71</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>31669.1000000001</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="n">
+        <v>907.8899999999999</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>455.070000000001</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>144.34</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1391.63000000001</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>78.62000000000002</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3391,139 +5941,310 @@
       <c r="V51" t="n">
         <v>25.36</v>
       </c>
+      <c r="W51" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="X51" t="n">
+        <v>6626.71</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>276.95</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>260.79</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>619.72</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>112.02</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1062.35</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>626.87</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>852.03</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>75.93000000000001</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>380.77</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>93.02</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>10110.76</v>
+      </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>327.38</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>131.39</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>488.03</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>25.36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>264.39</v>
+        <v>155.03</v>
       </c>
       <c r="C52" t="n">
-        <v>25933.16</v>
+        <v>15758.83</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>1038.54</v>
+        <v>615.36</v>
       </c>
       <c r="F52" t="n">
-        <v>934.88</v>
+        <v>609.45</v>
       </c>
       <c r="G52" t="n">
-        <v>2496.71</v>
+        <v>1516.4</v>
       </c>
       <c r="H52" t="n">
-        <v>451.76</v>
+        <v>258.98</v>
       </c>
       <c r="I52" t="n">
-        <v>3968.86</v>
+        <v>2449.37</v>
       </c>
       <c r="J52" t="n">
-        <v>2549.21</v>
+        <v>1539.12</v>
       </c>
       <c r="K52" t="n">
-        <v>3193.59</v>
+        <v>1994.59</v>
       </c>
       <c r="L52" t="n">
-        <v>376.29</v>
+        <v>241.41</v>
       </c>
       <c r="M52" t="n">
-        <v>1343.44</v>
+        <v>855.66</v>
       </c>
       <c r="N52" t="n">
-        <v>351.24</v>
+        <v>228.67</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>39369.25</v>
+        <v>24023.4</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>1376.12</v>
+        <v>798.86</v>
       </c>
       <c r="S52" t="n">
-        <v>520.26</v>
+        <v>335.41</v>
       </c>
       <c r="T52" t="n">
-        <v>229.52</v>
+        <v>146.49</v>
       </c>
       <c r="U52" t="n">
-        <v>2057.4</v>
+        <v>1204.32</v>
       </c>
       <c r="V52" t="n">
-        <v>84.08</v>
+        <v>53.49</v>
+      </c>
+      <c r="W52" t="n">
+        <v>85.28</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9132.119999999999</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>338.41</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>348.66</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>896.6800000000001</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>146.96</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1387.02</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>912.2499999999999</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1142.56</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>165.48</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>474.89</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>13912.64</v>
+      </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>471.48</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>204.02</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>97.87</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>716.29</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>28.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>155.03</v>
+        <v>264.39</v>
       </c>
       <c r="C53" t="n">
-        <v>15758.83</v>
+        <v>25933.16</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>615.36</v>
+        <v>1038.54</v>
       </c>
       <c r="F53" t="n">
-        <v>609.45</v>
+        <v>934.88</v>
       </c>
       <c r="G53" t="n">
-        <v>1516.4</v>
+        <v>2496.71</v>
       </c>
       <c r="H53" t="n">
-        <v>258.98</v>
+        <v>451.76</v>
       </c>
       <c r="I53" t="n">
-        <v>2449.37</v>
+        <v>3968.86</v>
       </c>
       <c r="J53" t="n">
-        <v>1539.12</v>
+        <v>2549.21</v>
       </c>
       <c r="K53" t="n">
-        <v>1994.59</v>
+        <v>3193.59</v>
       </c>
       <c r="L53" t="n">
-        <v>241.41</v>
+        <v>376.29</v>
       </c>
       <c r="M53" t="n">
-        <v>855.66</v>
+        <v>1343.44</v>
       </c>
       <c r="N53" t="n">
-        <v>228.67</v>
+        <v>351.24</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>24023.4</v>
+        <v>39369.25</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>798.86</v>
+        <v>1376.12</v>
       </c>
       <c r="S53" t="n">
-        <v>335.41</v>
+        <v>520.26</v>
       </c>
       <c r="T53" t="n">
-        <v>146.49</v>
+        <v>229.52</v>
       </c>
       <c r="U53" t="n">
-        <v>1204.32</v>
+        <v>2057.4</v>
       </c>
       <c r="V53" t="n">
-        <v>53.49</v>
+        <v>84.08</v>
+      </c>
+      <c r="W53" t="n">
+        <v>109.36</v>
+      </c>
+      <c r="X53" t="n">
+        <v>10174.33</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>423.1799999999999</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>325.4299999999999</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>980.3099999999999</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>192.78</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1519.49</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1010.09</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>134.88</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>487.7800000000001</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>122.57</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="n">
+        <v>15345.85</v>
+      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="n">
+        <v>577.2599999999999</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>184.85</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>83.03</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>853.0800000000002</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>30.59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3583,11 +6304,68 @@
       <c r="V54" t="n">
         <v>134.42</v>
       </c>
+      <c r="W54" t="n">
+        <v>213.65</v>
+      </c>
+      <c r="X54" t="n">
+        <v>21761.67</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>919.4400000000001</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>927.34</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1906.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>337.85</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3212.22</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2090.99</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>2446.32</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>177.56</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1087.7</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>211.29</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="n">
+        <v>32459.11</v>
+      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>1066.88</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>422.1900000000001</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>164.49</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1569.22</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>50.33999999999999</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3647,139 +6425,310 @@
       <c r="V55" t="n">
         <v>34.6</v>
       </c>
+      <c r="W55" t="n">
+        <v>86.83</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6931.76</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>322.23</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>239.99</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>638.8099999999999</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>132.95</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1147.59</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>657.97</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>861.72</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>78.81</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>10579.96</v>
+      </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>139.13</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>534.13</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>272.02</v>
+        <v>153.8</v>
       </c>
       <c r="C56" t="n">
-        <v>26301.39</v>
+        <v>15943.24</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>1068.1</v>
+        <v>666.36</v>
       </c>
       <c r="F56" t="n">
-        <v>941.74</v>
+        <v>561.34</v>
       </c>
       <c r="G56" t="n">
-        <v>2324.69</v>
+        <v>1451.43</v>
       </c>
       <c r="H56" t="n">
-        <v>476.79</v>
+        <v>310.76</v>
       </c>
       <c r="I56" t="n">
-        <v>4238.11</v>
+        <v>2630.39</v>
       </c>
       <c r="J56" t="n">
-        <v>2707.07</v>
+        <v>1621.76</v>
       </c>
       <c r="K56" t="n">
-        <v>3153.41</v>
+        <v>2057.56</v>
       </c>
       <c r="L56" t="n">
-        <v>243.1</v>
+        <v>157.9</v>
       </c>
       <c r="M56" t="n">
-        <v>1449.96</v>
+        <v>966.5599999999999</v>
       </c>
       <c r="N56" t="n">
-        <v>278.88</v>
+        <v>185.51</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>39876.03</v>
+        <v>24373.37</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>1439.26</v>
+        <v>842.84</v>
       </c>
       <c r="S56" t="n">
-        <v>537.13</v>
+        <v>308.62</v>
       </c>
       <c r="T56" t="n">
-        <v>191.48</v>
+        <v>113.4</v>
       </c>
       <c r="U56" t="n">
-        <v>2107.53</v>
+        <v>1267</v>
       </c>
       <c r="V56" t="n">
-        <v>113.37</v>
+        <v>81.23</v>
+      </c>
+      <c r="W56" t="n">
+        <v>66.97000000000001</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9011.48</v>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>344.13</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>321.35</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>812.6200000000001</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>177.81</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1482.8</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>963.79</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1195.84</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>107.61</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>590.76</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>13793.41</v>
+      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>493.89</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>169.49</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>61.16</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>732.87</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>46.63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>153.8</v>
+        <v>272.02</v>
       </c>
       <c r="C57" t="n">
-        <v>15943.24</v>
+        <v>26301.39</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>666.36</v>
+        <v>1068.1</v>
       </c>
       <c r="F57" t="n">
-        <v>561.34</v>
+        <v>941.74</v>
       </c>
       <c r="G57" t="n">
-        <v>1451.43</v>
+        <v>2324.69</v>
       </c>
       <c r="H57" t="n">
-        <v>310.76</v>
+        <v>476.79</v>
       </c>
       <c r="I57" t="n">
-        <v>2630.39</v>
+        <v>4238.11</v>
       </c>
       <c r="J57" t="n">
-        <v>1621.76</v>
+        <v>2707.07</v>
       </c>
       <c r="K57" t="n">
-        <v>2057.56</v>
+        <v>3153.41</v>
       </c>
       <c r="L57" t="n">
-        <v>157.9</v>
+        <v>243.1</v>
       </c>
       <c r="M57" t="n">
-        <v>966.5599999999999</v>
+        <v>1449.96</v>
       </c>
       <c r="N57" t="n">
-        <v>185.51</v>
+        <v>278.88</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>24373.37</v>
+        <v>39876.03</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>842.84</v>
+        <v>1439.26</v>
       </c>
       <c r="S57" t="n">
-        <v>308.62</v>
+        <v>537.13</v>
       </c>
       <c r="T57" t="n">
-        <v>113.4</v>
+        <v>191.48</v>
       </c>
       <c r="U57" t="n">
-        <v>1267</v>
+        <v>2107.53</v>
       </c>
       <c r="V57" t="n">
-        <v>81.23</v>
+        <v>113.37</v>
+      </c>
+      <c r="W57" t="n">
+        <v>118.22</v>
+      </c>
+      <c r="X57" t="n">
+        <v>10358.15</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>401.7399999999999</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>873.26</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>166.03</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1607.72</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1085.31</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1095.85</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>85.19999999999999</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>483.4000000000001</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>15502.66</v>
+      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>596.42</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>228.51</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>78.07999999999998</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>840.5300000000002</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>32.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3839,11 +6788,68 @@
       <c r="V58" t="n">
         <v>161.15</v>
       </c>
+      <c r="W58" t="n">
+        <v>235.58</v>
+      </c>
+      <c r="X58" t="n">
+        <v>21007.5</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>913.95</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>961.76</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1771.96</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>401.59</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3322.39</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2051.27</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>2355.53</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>168.14</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>950.6199999999999</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>275.04</v>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>31648.49000000001</v>
+      </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="n">
+        <v>1075.76</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>393.84</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>122.59</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1599.94</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>47.78</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3903,139 +6909,310 @@
       <c r="V59" t="n">
         <v>22.27</v>
       </c>
+      <c r="W59" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="X59" t="n">
+        <v>7034.72</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>295.08</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>246.63</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>745.14</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>153.53</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1316.14</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>781.4400000000001</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>834.71</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>89.65000000000001</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>354.94</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="n">
+        <v>10888.8</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="n">
+        <v>324.32</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>121.84</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>56.46</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>534.3</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>22.27</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>211.96</v>
+        <v>131.77</v>
       </c>
       <c r="C60" t="n">
-        <v>25888.55</v>
+        <v>16425.74</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>1287.56</v>
+        <v>711.63</v>
       </c>
       <c r="F60" t="n">
-        <v>1025.4</v>
+        <v>557.79</v>
       </c>
       <c r="G60" t="n">
-        <v>2108.04</v>
+        <v>1433.17</v>
       </c>
       <c r="H60" t="n">
-        <v>531.58</v>
+        <v>291.33</v>
       </c>
       <c r="I60" t="n">
-        <v>4263.51</v>
+        <v>2719.71</v>
       </c>
       <c r="J60" t="n">
-        <v>2842.92</v>
+        <v>1734.07</v>
       </c>
       <c r="K60" t="n">
-        <v>3378.01</v>
+        <v>1842.75</v>
       </c>
       <c r="L60" t="n">
-        <v>294.82</v>
+        <v>180.24</v>
       </c>
       <c r="M60" t="n">
-        <v>1386.53</v>
+        <v>742.22</v>
       </c>
       <c r="N60" t="n">
-        <v>327.34</v>
+        <v>162.93</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>39582.02</v>
+        <v>24551.33</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>1379.83</v>
+        <v>729.11</v>
       </c>
       <c r="S60" t="n">
-        <v>584.58</v>
+        <v>301.59</v>
       </c>
       <c r="T60" t="n">
-        <v>210.58</v>
+        <v>118.38</v>
       </c>
       <c r="U60" t="n">
-        <v>2121.99</v>
+        <v>1138.82</v>
       </c>
       <c r="V60" t="n">
-        <v>81.75</v>
+        <v>45.73</v>
+      </c>
+      <c r="W60" t="n">
+        <v>76.45000000000002</v>
+      </c>
+      <c r="X60" t="n">
+        <v>9391.02</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>416.55</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>311.16</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>688.0300000000001</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1403.57</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>952.6299999999999</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1008.04</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>387.28</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="n">
+        <v>13662.53</v>
+      </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="n">
+        <v>404.79</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>61.91999999999999</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>604.52</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>23.46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>131.77</v>
+        <v>211.96</v>
       </c>
       <c r="C61" t="n">
-        <v>16425.74</v>
+        <v>25888.55</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>711.63</v>
+        <v>1287.56</v>
       </c>
       <c r="F61" t="n">
-        <v>557.79</v>
+        <v>1025.4</v>
       </c>
       <c r="G61" t="n">
-        <v>1433.17</v>
+        <v>2108.04</v>
       </c>
       <c r="H61" t="n">
-        <v>291.33</v>
+        <v>531.58</v>
       </c>
       <c r="I61" t="n">
-        <v>2719.71</v>
+        <v>4263.51</v>
       </c>
       <c r="J61" t="n">
-        <v>1734.07</v>
+        <v>2842.92</v>
       </c>
       <c r="K61" t="n">
-        <v>1842.75</v>
+        <v>3378.01</v>
       </c>
       <c r="L61" t="n">
-        <v>180.24</v>
+        <v>294.82</v>
       </c>
       <c r="M61" t="n">
-        <v>742.22</v>
+        <v>1386.53</v>
       </c>
       <c r="N61" t="n">
-        <v>162.93</v>
+        <v>327.34</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>24551.33</v>
+        <v>39582.02</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>729.11</v>
+        <v>1379.83</v>
       </c>
       <c r="S61" t="n">
-        <v>301.59</v>
+        <v>584.58</v>
       </c>
       <c r="T61" t="n">
-        <v>118.38</v>
+        <v>210.58</v>
       </c>
       <c r="U61" t="n">
-        <v>1138.82</v>
+        <v>2121.99</v>
       </c>
       <c r="V61" t="n">
-        <v>45.73</v>
+        <v>81.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="X61" t="n">
+        <v>9462.809999999998</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>575.9299999999999</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>467.6100000000001</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>674.8699999999999</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>240.2500000000001</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1543.8</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1108.85</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1535.26</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>114.58</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>644.3099999999999</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>164.41</v>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>15030.69</v>
+      </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="n">
+        <v>650.7199999999999</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>282.9900000000001</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>92.20000000000002</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>983.1699999999998</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>36.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4095,11 +7272,68 @@
       <c r="V62" t="n">
         <v>132.95</v>
       </c>
+      <c r="W62" t="n">
+        <v>238.84</v>
+      </c>
+      <c r="X62" t="n">
+        <v>21407.83</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>2094.22</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1086.43</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1788.34</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>392.3</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3741.26</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2353.39</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>3622.01</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>263.72</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1013.91</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>198.97</v>
+      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>34397.69000000001</v>
+      </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>415.2099999999999</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>191.97</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2097.76</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>51.19999999999999</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4159,139 +7393,310 @@
       <c r="V63" t="n">
         <v>18.97542</v>
       </c>
+      <c r="W63" t="n">
+        <v>53.43954</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5336.23098</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>267.34666</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>277.47438</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>436.76446</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>129.32908</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>943.52157</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>541.88666</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>571.35056</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>36.11895</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>196.00756</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>52.90197</v>
+      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>8163.33988</v>
+      </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="n">
+        <v>249.45871</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>122.53702</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>43.23358</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>422.02137</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>18.97542</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>237.86237</v>
+        <v>124.36769</v>
       </c>
       <c r="C64" t="n">
-        <v>24909.88879</v>
+        <v>14509.85076</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>1036.84342</v>
+        <v>567.14152</v>
       </c>
       <c r="F64" t="n">
-        <v>1075.64825</v>
+        <v>748.09898</v>
       </c>
       <c r="G64" t="n">
-        <v>1730.35849</v>
+        <v>1093.12087</v>
       </c>
       <c r="H64" t="n">
-        <v>509.90406</v>
+        <v>341.73722</v>
       </c>
       <c r="I64" t="n">
-        <v>4108.11754</v>
+        <v>2411.42581</v>
       </c>
       <c r="J64" t="n">
-        <v>2612.07685</v>
+        <v>1510.50932</v>
       </c>
       <c r="K64" t="n">
-        <v>2701.16681</v>
+        <v>1517.68233</v>
       </c>
       <c r="L64" t="n">
-        <v>241.4216</v>
+        <v>171.50237</v>
       </c>
       <c r="M64" t="n">
-        <v>1123.41485</v>
+        <v>597.34843</v>
       </c>
       <c r="N64" t="n">
-        <v>234.03106</v>
+        <v>126.77927</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>37467.23559</v>
+        <v>21940.17242</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>1473.81059</v>
+        <v>743.47258</v>
       </c>
       <c r="S64" t="n">
-        <v>494.75276</v>
+        <v>326.66765</v>
       </c>
       <c r="T64" t="n">
-        <v>225.72593</v>
+        <v>123.74853</v>
       </c>
       <c r="U64" t="n">
-        <v>2209.44058</v>
+        <v>1208.95833</v>
       </c>
       <c r="V64" t="n">
-        <v>65.45587999999999</v>
+        <v>54.91074</v>
+      </c>
+      <c r="W64" t="n">
+        <v>70.92814999999999</v>
+      </c>
+      <c r="X64" t="n">
+        <v>9173.619779999999</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>299.79486</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>470.6246</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>656.35641</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>212.40814</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1467.90424</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>968.6226599999999</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>946.3317700000001</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>135.38342</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>401.34087</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>73.87729999999999</v>
+      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>13776.83254</v>
+      </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="n">
+        <v>494.01387</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>204.13063</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>80.51495</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>786.93696</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>35.93532</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>124.36769</v>
+        <v>237.86237</v>
       </c>
       <c r="C65" t="n">
-        <v>14509.85076</v>
+        <v>24909.88879</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>567.14152</v>
+        <v>1036.84342</v>
       </c>
       <c r="F65" t="n">
-        <v>748.09898</v>
+        <v>1075.64825</v>
       </c>
       <c r="G65" t="n">
-        <v>1093.12087</v>
+        <v>1730.35849</v>
       </c>
       <c r="H65" t="n">
-        <v>341.73722</v>
+        <v>509.90406</v>
       </c>
       <c r="I65" t="n">
-        <v>2411.42581</v>
+        <v>4108.11754</v>
       </c>
       <c r="J65" t="n">
-        <v>1510.50932</v>
+        <v>2612.07685</v>
       </c>
       <c r="K65" t="n">
-        <v>1517.68233</v>
+        <v>2701.16681</v>
       </c>
       <c r="L65" t="n">
-        <v>171.50237</v>
+        <v>241.4216</v>
       </c>
       <c r="M65" t="n">
-        <v>597.34843</v>
+        <v>1123.41485</v>
       </c>
       <c r="N65" t="n">
-        <v>126.77927</v>
+        <v>234.03106</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>21940.17242</v>
+        <v>37467.23559</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>743.47258</v>
+        <v>1473.81059</v>
       </c>
       <c r="S65" t="n">
-        <v>326.66765</v>
+        <v>494.75276</v>
       </c>
       <c r="T65" t="n">
-        <v>123.74853</v>
+        <v>225.72593</v>
       </c>
       <c r="U65" t="n">
-        <v>1208.95833</v>
+        <v>2209.44058</v>
       </c>
       <c r="V65" t="n">
-        <v>54.91074</v>
+        <v>65.45587999999999</v>
+      </c>
+      <c r="W65" t="n">
+        <v>113.49468</v>
+      </c>
+      <c r="X65" t="n">
+        <v>10400.03803</v>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>469.7018999999999</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>327.54927</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>637.2376200000001</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>168.16684</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1696.69173</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1101.56753</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1183.48448</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>69.91923</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>526.0664199999999</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>107.25179</v>
+      </c>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>15527.06317</v>
+      </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="n">
+        <v>730.3380100000001</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>168.08511</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>101.9774</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1000.48225</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>10.54514</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4351,11 +7756,68 @@
       <c r="V66" t="n">
         <v>126.56134</v>
       </c>
+      <c r="W66" t="n">
+        <v>243.4371</v>
+      </c>
+      <c r="X66" t="n">
+        <v>22580.83037</v>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>1067.1485</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1209.17368</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1725.93103</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>492.26318</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3761.23495</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2578.58272</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2338.11067</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>288.58592</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>682.3931600000001</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>238.87763</v>
+      </c>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="n">
+        <v>34414.58723</v>
+      </c>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="n">
+        <v>1434.08861</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>436.4750099999999</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>193.04263</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2119.39442</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>61.10546000000001</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4415,139 +7877,310 @@
       <c r="V67" t="n">
         <v>22.43179</v>
       </c>
+      <c r="W67" t="n">
+        <v>94.64402</v>
+      </c>
+      <c r="X67" t="n">
+        <v>6681.46243</v>
+      </c>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="n">
+        <v>331.7433</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>391.16006</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>633.62875</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>174.69569</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1282.02884</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>803.7025599999999</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>741.19061</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>32.40869</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>300.73197</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>53.87486</v>
+      </c>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="n">
+        <v>10616.61247</v>
+      </c>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="n">
+        <v>423.6169</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>141.13909</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>53.04608</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>651.35867</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>22.43179</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>294.04804</v>
+        <v>202.34415</v>
       </c>
       <c r="C68" t="n">
-        <v>27352.81599</v>
+        <v>16290.60283</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>1273.92248</v>
+        <v>791.7732600000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1507.02273</v>
+        <v>1023.77545</v>
       </c>
       <c r="G68" t="n">
-        <v>2051.74422</v>
+        <v>1313.09061</v>
       </c>
       <c r="H68" t="n">
-        <v>772.49947</v>
+        <v>419.88963</v>
       </c>
       <c r="I68" t="n">
-        <v>5190.31265</v>
+        <v>3098.51467</v>
       </c>
       <c r="J68" t="n">
-        <v>3326.33764</v>
+        <v>2019.68512</v>
       </c>
       <c r="K68" t="n">
-        <v>3010.14437</v>
+        <v>1846.40869</v>
       </c>
       <c r="L68" t="n">
-        <v>228.14634</v>
+        <v>143.69914</v>
       </c>
       <c r="M68" t="n">
-        <v>1185.55918</v>
+        <v>681.33991</v>
       </c>
       <c r="N68" t="n">
-        <v>247.09326</v>
+        <v>178.70415</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>43178.79738</v>
+        <v>25826.89701</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>2006.91381</v>
+        <v>1077.30535</v>
       </c>
       <c r="S68" t="n">
-        <v>736.61338</v>
+        <v>421.20843</v>
       </c>
       <c r="T68" t="n">
-        <v>256.68272</v>
+        <v>133.7572</v>
       </c>
       <c r="U68" t="n">
-        <v>3036.096</v>
+        <v>1630.95218</v>
       </c>
       <c r="V68" t="n">
-        <v>75.42310999999999</v>
+        <v>50.89223</v>
+      </c>
+      <c r="W68" t="n">
+        <v>107.70013</v>
+      </c>
+      <c r="X68" t="n">
+        <v>9609.1404</v>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="n">
+        <v>460.0299600000001</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>632.6153899999999</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>679.46186</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>245.19394</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>1816.48583</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1215.98256</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1105.21808</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>111.29045</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>380.60794</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>124.82929</v>
+      </c>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="n">
+        <v>15210.28454</v>
+      </c>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="n">
+        <v>653.6884500000001</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>280.06934</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>80.71112000000001</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>979.59351</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>28.46044</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>202.34415</v>
+        <v>294.04804</v>
       </c>
       <c r="C69" t="n">
-        <v>16290.60283</v>
+        <v>27352.81599</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>791.7732600000001</v>
+        <v>1273.92248</v>
       </c>
       <c r="F69" t="n">
-        <v>1023.77545</v>
+        <v>1507.02273</v>
       </c>
       <c r="G69" t="n">
-        <v>1313.09061</v>
+        <v>2051.74422</v>
       </c>
       <c r="H69" t="n">
-        <v>419.88963</v>
+        <v>772.49947</v>
       </c>
       <c r="I69" t="n">
-        <v>3098.51467</v>
+        <v>5190.31265</v>
       </c>
       <c r="J69" t="n">
-        <v>2019.68512</v>
+        <v>3326.33764</v>
       </c>
       <c r="K69" t="n">
-        <v>1846.40869</v>
+        <v>3010.14437</v>
       </c>
       <c r="L69" t="n">
-        <v>143.69914</v>
+        <v>228.14634</v>
       </c>
       <c r="M69" t="n">
-        <v>681.33991</v>
+        <v>1185.55918</v>
       </c>
       <c r="N69" t="n">
-        <v>178.70415</v>
+        <v>247.09326</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>25826.89701</v>
+        <v>43178.79738</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>1077.30535</v>
+        <v>2006.91381</v>
       </c>
       <c r="S69" t="n">
-        <v>421.20843</v>
+        <v>736.61338</v>
       </c>
       <c r="T69" t="n">
-        <v>133.7572</v>
+        <v>256.68272</v>
       </c>
       <c r="U69" t="n">
-        <v>1630.95218</v>
+        <v>3036.096</v>
       </c>
       <c r="V69" t="n">
-        <v>50.89223</v>
+        <v>75.42310999999999</v>
+      </c>
+      <c r="W69" t="n">
+        <v>91.70389</v>
+      </c>
+      <c r="X69" t="n">
+        <v>11062.21316</v>
+      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="n">
+        <v>482.1492199999999</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>483.2472799999999</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>738.6536100000001</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>352.60984</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2091.79798</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1306.65252</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1163.73568</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>84.44720000000001</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>504.2192699999999</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>68.38910999999999</v>
+      </c>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="n">
+        <v>17351.90037</v>
+      </c>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="n">
+        <v>929.6084599999999</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>315.40495</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>122.92552</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1405.14382</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>24.53088</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4606,6 +8239,63 @@
       </c>
       <c r="V70" t="n">
         <v>126.57274</v>
+      </c>
+      <c r="W70" t="n">
+        <v>259.20386</v>
+      </c>
+      <c r="X70" t="n">
+        <v>23172.29651</v>
+      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
+        <v>975.78052</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1141.18123</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1783.90038</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>628.4516000000001</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4334.31854</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3000.85955</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>2471.28972</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>279.20406</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>889.2916499999999</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>275.86386</v>
+      </c>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="n">
+        <v>36241.36057999999</v>
+      </c>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="n">
+        <v>1567.48327</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>637.3079700000001</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>245.9275</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2441.86237</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>51.14963</v>
       </c>
     </row>
   </sheetData>
